--- a/docs/cda-logical-model/StructureDefinition-Encounter.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="204">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,7 +91,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -361,7 +365,7 @@
     <t>Encounter.subject.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -969,42 +973,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="49.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="48.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1148,13 +1152,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1205,13 +1209,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1220,15 +1224,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1251,7 +1255,7 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1262,7 +1266,7 @@
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s" s="2">
         <v>72</v>
@@ -1280,11 +1284,11 @@
         <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>72</v>
@@ -1302,7 +1306,7 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
@@ -1322,10 +1326,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1348,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1401,7 +1405,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1421,10 +1425,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1432,10 +1436,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1447,7 +1451,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1500,13 +1504,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1520,10 +1524,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1531,7 +1535,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1546,7 +1550,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1599,10 +1603,10 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1619,10 +1623,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1630,10 +1634,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1645,11 +1649,11 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1700,13 +1704,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1720,10 +1724,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1731,10 +1735,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1746,7 +1750,7 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1799,13 +1803,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1819,10 +1823,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1830,7 +1834,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1845,7 +1849,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1874,11 +1878,11 @@
         <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1896,10 +1900,10 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -1916,10 +1920,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1927,7 +1931,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -1942,7 +1946,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1995,10 +1999,10 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -2015,10 +2019,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2026,7 +2030,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2041,7 +2045,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2070,32 +2074,32 @@
         <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2112,10 +2116,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2123,7 +2127,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2138,7 +2142,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2191,10 +2195,10 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2211,10 +2215,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2222,7 +2226,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2237,10 +2241,10 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2292,10 +2296,10 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2312,10 +2316,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2323,7 +2327,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2338,7 +2342,7 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2367,32 +2371,32 @@
         <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2409,10 +2413,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2420,7 +2424,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2435,7 +2439,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2488,10 +2492,10 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2500,7 +2504,7 @@
         <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
@@ -2508,10 +2512,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2519,7 +2523,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2534,13 +2538,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2591,10 +2595,10 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
@@ -2606,26 +2610,26 @@
         <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2637,16 +2641,16 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2684,42 +2688,42 @@
         <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2742,18 +2746,18 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>72</v>
@@ -2771,11 +2775,11 @@
         <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>72</v>
@@ -2793,7 +2797,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -2813,10 +2817,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2839,18 +2843,18 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>72</v>
@@ -2868,11 +2872,11 @@
         <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>72</v>
@@ -2890,7 +2894,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -2910,10 +2914,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2921,7 +2925,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>73</v>
@@ -2936,7 +2940,7 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2965,32 +2969,32 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
@@ -3007,10 +3011,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3033,7 +3037,7 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3086,7 +3090,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3106,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3117,10 +3121,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -3132,7 +3136,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3185,13 +3189,13 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
@@ -3205,10 +3209,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3216,10 +3220,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3231,7 +3235,7 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3284,13 +3288,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3304,10 +3308,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3315,10 +3319,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3330,7 +3334,7 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3383,13 +3387,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3403,10 +3407,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3414,10 +3418,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3429,7 +3433,7 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3482,19 +3486,19 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -3502,10 +3506,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3513,7 +3517,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>73</v>
@@ -3528,13 +3532,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3585,10 +3589,10 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
@@ -3600,26 +3604,26 @@
         <v>72</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -3631,16 +3635,16 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3678,42 +3682,42 @@
         <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3736,18 +3740,18 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>72</v>
@@ -3765,11 +3769,11 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
@@ -3787,7 +3791,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -3807,10 +3811,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3833,18 +3837,18 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>72</v>
@@ -3862,11 +3866,11 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
@@ -3884,7 +3888,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -3904,10 +3908,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3915,7 +3919,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -3930,7 +3934,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3983,10 +3987,10 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
@@ -4003,10 +4007,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4014,7 +4018,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4029,7 +4033,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -4082,10 +4086,10 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
@@ -4102,10 +4106,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4113,10 +4117,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4128,7 +4132,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4181,13 +4185,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4201,10 +4205,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4212,10 +4216,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4227,7 +4231,7 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4280,19 +4284,19 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
@@ -4300,10 +4304,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4311,7 +4315,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -4326,13 +4330,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4383,10 +4387,10 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4398,26 +4402,26 @@
         <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4429,16 +4433,16 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4476,42 +4480,42 @@
         <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4534,7 +4538,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4587,7 +4591,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -4607,10 +4611,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4618,7 +4622,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -4633,7 +4637,7 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4686,10 +4690,10 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -4706,10 +4710,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4732,14 +4736,14 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
@@ -4785,7 +4789,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -4805,10 +4809,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4816,7 +4820,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -4831,7 +4835,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4884,10 +4888,10 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
@@ -4904,10 +4908,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4915,7 +4919,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -4930,7 +4934,7 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4983,10 +4987,10 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
@@ -5003,10 +5007,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5014,7 +5018,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5029,7 +5033,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -5082,10 +5086,10 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5102,10 +5106,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5113,7 +5117,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5128,7 +5132,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -5181,10 +5185,10 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -5201,10 +5205,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5212,7 +5216,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -5227,7 +5231,7 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5280,10 +5284,10 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -5300,10 +5304,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5311,7 +5315,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -5326,7 +5330,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5379,10 +5383,10 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5399,10 +5403,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5410,7 +5414,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -5425,7 +5429,7 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5478,10 +5482,10 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
@@ -5498,10 +5502,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5509,7 +5513,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -5524,7 +5528,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5577,10 +5581,10 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -5597,10 +5601,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5608,7 +5612,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -5623,7 +5627,7 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5676,10 +5680,10 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -5696,10 +5700,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5707,7 +5711,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -5722,7 +5726,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5775,10 +5779,10 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
@@ -5795,10 +5799,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5806,7 +5810,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5821,7 +5825,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5874,10 +5878,10 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5894,10 +5898,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5905,7 +5909,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -5920,7 +5924,7 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5973,10 +5977,10 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
@@ -5993,10 +5997,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6004,10 +6008,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
@@ -6019,7 +6023,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6072,19 +6076,19 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>72</v>
@@ -6092,10 +6096,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6103,7 +6107,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6118,13 +6122,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6175,10 +6179,10 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -6190,26 +6194,26 @@
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -6221,16 +6225,16 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -6268,42 +6272,42 @@
         <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6326,7 +6330,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6379,7 +6383,7 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -6399,10 +6403,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6410,7 +6414,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -6425,7 +6429,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6478,10 +6482,10 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
@@ -6498,10 +6502,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6509,7 +6513,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -6524,7 +6528,7 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6577,10 +6581,10 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -6597,10 +6601,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6608,7 +6612,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -6623,7 +6627,7 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6676,10 +6680,10 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
@@ -6696,10 +6700,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6707,7 +6711,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -6722,7 +6726,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6775,10 +6779,10 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
@@ -6795,10 +6799,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6806,7 +6810,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
@@ -6821,7 +6825,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6874,10 +6878,10 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
@@ -6894,10 +6898,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -6905,10 +6909,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>72</v>
@@ -6920,7 +6924,7 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6973,13 +6977,13 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>72</v>

--- a/docs/cda-logical-model/StructureDefinition-Encounter.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -386,7 +386,7 @@
     <t>ENC</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActClass|2.0.0</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActClass</t>
   </si>
   <si>
     <t>Encounter.moodCode</t>
